--- a/HOOD.xlsx
+++ b/HOOD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11190FF-AB4E-4C71-8026-CA1C31868D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A542333-FDD2-4658-829B-C51BCB6E1320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{95EA51D1-0B56-4F09-BDE8-D618D0C4842F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{95EA51D1-0B56-4F09-BDE8-D618D0C4842F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
     <t>Tech</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>74.849999999999994</v>
+        <v>117.07</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -700,8 +700,8 @@
         <v>3</v>
       </c>
       <c r="J3" s="5">
-        <f>767.047021+115.42194</f>
-        <v>882.46896100000004</v>
+        <f>773.963666+114.711427</f>
+        <v>888.67509299999995</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>66</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="J4" s="5">
         <f>+J2*J3</f>
-        <v>66052.801730849998</v>
+        <v>104037.19313750998</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="5">
-        <v>4416</v>
+        <v>4332</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>66</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="J7" s="5">
         <f>+J4-J5+J6</f>
-        <v>61636.801730849998</v>
+        <v>99705.193137509981</v>
       </c>
     </row>
   </sheetData>
@@ -757,10 +757,10 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,16 +812,16 @@
         <v>20</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -837,6 +837,9 @@
       <c r="O3">
         <v>25.8</v>
       </c>
+      <c r="P3">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -864,6 +867,14 @@
       <c r="L6" s="3">
         <v>139700</v>
       </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>278600</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -878,9 +889,16 @@
       <c r="L7" s="3">
         <v>13200</v>
       </c>
-      <c r="O7">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
         <v>18000</v>
       </c>
+      <c r="P7" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -895,9 +913,16 @@
       <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
         <v>145</v>
       </c>
+      <c r="P8" s="3">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -909,6 +934,12 @@
       <c r="L9" s="3">
         <v>24200</v>
       </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -923,6 +954,9 @@
       <c r="O10">
         <v>145</v>
       </c>
+      <c r="P10">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -937,6 +971,9 @@
       <c r="O12">
         <v>56</v>
       </c>
+      <c r="P12" s="3">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -951,6 +988,9 @@
       <c r="O13">
         <v>240</v>
       </c>
+      <c r="P13" s="3">
+        <v>160</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -965,6 +1005,9 @@
       <c r="O14">
         <v>252</v>
       </c>
+      <c r="P14" s="3">
+        <v>265</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -988,6 +1031,9 @@
       <c r="O15">
         <v>583</v>
       </c>
+      <c r="P15">
+        <v>539</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1011,6 +1057,9 @@
       <c r="O16">
         <v>290</v>
       </c>
+      <c r="P16">
+        <v>357</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1033,6 +1082,9 @@
       </c>
       <c r="O17">
         <v>54</v>
+      </c>
+      <c r="P17">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
@@ -1064,7 +1116,9 @@
       <c r="O18" s="1">
         <v>927</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1">
+        <v>989</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
@@ -1090,10 +1144,13 @@
       <c r="O19">
         <v>50</v>
       </c>
+      <c r="P19">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:N20" si="0">+C18-C19</f>
@@ -1147,10 +1204,14 @@
         <f>+O18-O19</f>
         <v>877</v>
       </c>
+      <c r="P20">
+        <f>+P18-P19</f>
+        <v>941</v>
+      </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>180</v>
@@ -1170,10 +1231,13 @@
       <c r="O21">
         <v>214</v>
       </c>
+      <c r="P21">
+        <v>214</v>
+      </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>43</v>
@@ -1195,10 +1259,13 @@
         <f>31+24</f>
         <v>55</v>
       </c>
+      <c r="P22">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>29</v>
@@ -1218,10 +1285,13 @@
       <c r="O23">
         <v>105</v>
       </c>
+      <c r="P23">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>197</v>
@@ -1241,10 +1311,14 @@
       <c r="O24">
         <v>133</v>
       </c>
+      <c r="P24">
+        <f>132+28</f>
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>449</v>
@@ -1266,10 +1340,14 @@
         <f>+SUM(O21:O24)</f>
         <v>507</v>
       </c>
+      <c r="P25">
+        <f>+SUM(P21:P24)</f>
+        <v>502</v>
+      </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26">
         <v>-154</v>
@@ -1291,10 +1369,14 @@
         <f>+O20-O25</f>
         <v>370</v>
       </c>
+      <c r="P26">
+        <f>+P20-P25</f>
+        <v>439</v>
+      </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>-14</v>
@@ -1314,10 +1396,13 @@
       <c r="O27">
         <v>1</v>
       </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>-168</v>
@@ -1339,10 +1424,14 @@
         <f>+O26+O27</f>
         <v>371</v>
       </c>
+      <c r="P28">
+        <f>+P26+P27</f>
+        <v>442</v>
+      </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>-2</v>
@@ -1362,10 +1451,13 @@
       <c r="O29">
         <v>35</v>
       </c>
+      <c r="P29">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>-166</v>
@@ -1387,10 +1479,14 @@
         <f>+O28-O29</f>
         <v>336</v>
       </c>
+      <c r="P30">
+        <f>+P28-P29</f>
+        <v>386</v>
+      </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>-0.19</v>
@@ -1412,6 +1508,10 @@
         <f>+O30/O32</f>
         <v>0.37984230988945805</v>
       </c>
+      <c r="P31" s="7">
+        <f>+P30/P32</f>
+        <v>0.43756760376968434</v>
+      </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1435,10 +1535,13 @@
       <c r="O32" s="3">
         <v>884.57760299999995</v>
       </c>
+      <c r="P32">
+        <v>882.14940200000001</v>
+      </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" s="4">
         <v>0.24</v>
@@ -1457,7 +1560,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L39" s="3">
         <v>24342</v>
@@ -1465,7 +1568,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40">
         <v>63</v>
@@ -1473,7 +1576,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L41">
         <v>30</v>
@@ -1481,7 +1584,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L42">
         <v>196</v>
@@ -1489,7 +1592,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43">
         <v>120</v>
@@ -1497,7 +1600,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44">
         <v>223</v>
@@ -1505,7 +1608,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45">
         <v>107</v>
@@ -1513,7 +1616,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="3">
         <v>32332</v>
@@ -1521,7 +1624,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L48">
         <v>384</v>
@@ -1529,7 +1632,7 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L49" s="3">
         <v>24944</v>
@@ -1537,7 +1640,7 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L50">
         <v>217</v>
@@ -1545,7 +1648,7 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51">
         <v>91</v>
@@ -1553,7 +1656,7 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" s="3">
         <v>6696</v>
@@ -1561,7 +1664,7 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53" s="3">
         <v>32332</v>
@@ -1569,7 +1672,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55">
         <v>181</v>
@@ -1618,7 +1721,7 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57">
         <v>771</v>
@@ -1670,7 +1773,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3">
         <v>9400</v>
@@ -1684,7 +1787,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -1701,7 +1804,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3">
         <v>4900</v>
@@ -1709,7 +1812,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3">
         <v>5500</v>
@@ -1717,7 +1820,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>497</v>
@@ -1731,7 +1834,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3">
         <v>20437</v>

--- a/HOOD.xlsx
+++ b/HOOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A542333-FDD2-4658-829B-C51BCB6E1320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D54A0F7-DD38-4DC1-A447-DF12BF8199F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{95EA51D1-0B56-4F09-BDE8-D618D0C4842F}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{95EA51D1-0B56-4F09-BDE8-D618D0C4842F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\="/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,12 +284,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -298,6 +296,31 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arail"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arail"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,18 +344,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,79 +699,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA74D091-ABB5-4C84-9A6A-177758B55171}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>117.07</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>773.963666+114.711427</f>
         <v>888.67509299999995</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+    <row r="4" spans="1:11">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f>+J2*J3</f>
         <v>104037.19313750998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="5" spans="1:11">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>4332</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f>+J4-J5+J6</f>
         <v>99705.193137509981</v>
       </c>
@@ -757,988 +787,989 @@
   <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:18">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:18">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>23.9</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>11.8</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>25.8</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>26.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:18">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>389.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:18">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="8">
         <v>5773</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:18">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="8">
         <v>102600</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="8">
         <v>139700</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
         <v>278600</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="8">
         <v>4600</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>11200</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="8">
         <v>13200</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
         <v>18000</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="8">
         <v>13800</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="8">
         <v>1420</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>144</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="8">
         <v>2000</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
         <v>145</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="8">
         <v>151</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="8">
         <v>23400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="8">
         <v>24200</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>104</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>28.18</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>145</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:18">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>39</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>40</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>56</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="8">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:18">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>126</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>81</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>240</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="8">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:18">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>154</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>182</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>252</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="8">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:18">
+      <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>186</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>193</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>200</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <v>329</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>327</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>583</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:18">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>167</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>234</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>236</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>254</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>285</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>290</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:18">
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>27</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>59</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>35</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>35</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>70</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>54</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:18">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9">
         <v>380</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
         <v>486</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
         <v>471</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="9">
         <v>618</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="9">
         <v>682</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
         <v>927</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="9">
         <v>989</v>
       </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>85</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>39</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>32</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="6">
         <v>35</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>40</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <v>50</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:18">
+      <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <f t="shared" ref="C20:N20" si="0">+C18-C19</f>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>447</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>439</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="6">
         <f t="shared" si="0"/>
         <v>583</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <f t="shared" si="0"/>
         <v>642</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <f>+O18-O19</f>
         <v>877</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="6">
         <f>+P18-P19</f>
         <v>941</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:18">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>180</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>207</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>197</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>196</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>209</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>214</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:18">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <v>43</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>36</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>40</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <f>28+16</f>
         <v>44</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>46</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <f>31+24</f>
         <v>55</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:18">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <v>29</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>25</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <v>43</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="6">
         <v>67</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>64</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="6">
         <v>105</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:18">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>197</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>159</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>133</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="6">
         <v>118</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>134</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="6">
         <v>133</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="6">
         <f>132+28</f>
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:18">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>449</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>427</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <v>413</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="6">
         <f>+SUM(K21:K24)</f>
         <v>425</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <v>453</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="6">
         <f>+SUM(O21:O24)</f>
         <v>507</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="6">
         <f>+SUM(P21:P24)</f>
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:18">
+      <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>-154</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>20</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="6">
         <v>26</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <f>+K20-K25</f>
         <v>158</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>189</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <f>+O20-O25</f>
         <v>370</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="6">
         <f>+P20-P25</f>
         <v>439</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:18">
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <v>-14</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>2</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>3</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="6">
         <v>4</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>2</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>1</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:18">
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>-168</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>22</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>29</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <f>+K26+K27</f>
         <v>162</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>191</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <f>+O26+O27</f>
         <v>371</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="6">
         <f>+P26+P27</f>
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:18">
+      <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <v>-2</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>-3</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>-1</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>5</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>3</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>35</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:18">
+      <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>-166</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>25</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>30</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="6">
         <f>+K28-K29</f>
         <v>157</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>188</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <f>+O28-O29</f>
         <v>336</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="6">
         <f>+P28-P29</f>
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:18">
+      <c r="B31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>-0.19</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>0.03</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>0.03</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="10">
         <f>+K30/K32</f>
         <v>0.17936309733847819</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>0.21</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="10">
         <f>+O30/O32</f>
         <v>0.37984230988945805</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="10">
         <f>+P30/P32</f>
         <v>0.43756760376968434</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:18">
+      <c r="B32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>889</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>921</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="6">
         <v>883</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="8">
         <v>875.31940699999996</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>904</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="8">
         <v>884.57760299999995</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="6">
         <v>882.14940200000001</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:12">
+      <c r="B34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="11">
         <v>0.24</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="11">
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:12">
+      <c r="B38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="8">
         <v>7251</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:12">
+      <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="8">
         <v>24342</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:12">
+      <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:12">
+      <c r="B41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:12">
+      <c r="B42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="6">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:12">
+      <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:12">
+      <c r="B44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="6">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:12">
+      <c r="B45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:12">
+      <c r="B46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="8">
         <v>32332</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:12">
+      <c r="B48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="6">
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:12">
+      <c r="B49" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="8">
         <v>24944</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:12">
+      <c r="B50" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="6">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:12">
+      <c r="B51" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:12">
+      <c r="B52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="8">
         <v>6696</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:12">
+      <c r="B53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="8">
         <v>32332</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:12">
+      <c r="B55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <v>181</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="6">
         <v>828</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="6">
         <v>370</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="6">
         <v>-977</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="6">
         <v>960</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="6">
         <v>-623</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:12">
+      <c r="B56" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="6">
         <v>-57</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="6">
         <v>168</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="6">
         <v>-613</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="6">
         <v>204</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="6">
         <v>796</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="6">
         <v>742</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:12">
+      <c r="B57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="6">
         <v>771</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="6">
         <v>538</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="8">
         <v>-1590</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="8">
         <v>1164</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="6">
         <v>173</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="6">
         <v>796</v>
       </c>
     </row>
@@ -1755,88 +1786,89 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7">
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>9400</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>116000</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>12.34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>140</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
         <v>19000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>136.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:7">
+      <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>4900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>5500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>497</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="8">
         <v>14000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>28.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>20437</v>
       </c>
     </row>
